--- a/appendix/mean_4ds_recall_macro_top4th.xlsx
+++ b/appendix/mean_4ds_recall_macro_top4th.xlsx
@@ -525,7 +525,7 @@
         <v>0.606</v>
       </c>
       <c r="G3" t="n">
-        <v>0.626</v>
+        <v>0.627</v>
       </c>
       <c r="H3" t="n">
         <v>0.669</v>

--- a/appendix/mean_4ds_recall_macro_top4th.xlsx
+++ b/appendix/mean_4ds_recall_macro_top4th.xlsx
@@ -569,22 +569,22 @@
         <v>0</v>
       </c>
       <c r="C5" t="n">
-        <v>0.478</v>
+        <v>0.493</v>
       </c>
       <c r="D5" t="n">
-        <v>0.5669999999999999</v>
+        <v>0.591</v>
       </c>
       <c r="E5" t="n">
-        <v>0.593</v>
+        <v>0.611</v>
       </c>
       <c r="F5" t="n">
-        <v>0.662</v>
+        <v>0.681</v>
       </c>
       <c r="G5" t="n">
-        <v>0.667</v>
+        <v>0.681</v>
       </c>
       <c r="H5" t="n">
-        <v>0.679</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="6">
@@ -618,14 +618,14 @@
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
         <is>
-          <t>classical-best-embeddings</t>
+          <t>classical-best-embed</t>
         </is>
       </c>
       <c r="B7" t="n">
         <v>0</v>
       </c>
       <c r="C7" t="n">
-        <v>0.478</v>
+        <v>0.493</v>
       </c>
       <c r="D7" t="n">
         <v>0.6</v>
@@ -634,13 +634,13 @@
         <v>0.611</v>
       </c>
       <c r="F7" t="n">
-        <v>0.662</v>
+        <v>0.681</v>
       </c>
       <c r="G7" t="n">
-        <v>0.67</v>
+        <v>0.681</v>
       </c>
       <c r="H7" t="n">
-        <v>0.6820000000000001</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
     <row r="8">
@@ -653,22 +653,22 @@
         <v>0</v>
       </c>
       <c r="C8" t="n">
-        <v>0.459</v>
+        <v>0.488</v>
       </c>
       <c r="D8" t="n">
-        <v>0.634</v>
+        <v>0.645</v>
       </c>
       <c r="E8" t="n">
-        <v>0.66</v>
+        <v>0.678</v>
       </c>
       <c r="F8" t="n">
-        <v>0.695</v>
+        <v>0.697</v>
       </c>
       <c r="G8" t="n">
-        <v>0.708</v>
+        <v>0.727</v>
       </c>
       <c r="H8" t="n">
-        <v>0.73</v>
+        <v>0.744</v>
       </c>
     </row>
     <row r="9">
@@ -678,25 +678,25 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>0.29</v>
+        <v>0.291</v>
       </c>
       <c r="C9" t="n">
         <v>0.467</v>
       </c>
       <c r="D9" t="n">
-        <v>0.576</v>
+        <v>0.62</v>
       </c>
       <c r="E9" t="n">
-        <v>0.623</v>
+        <v>0.654</v>
       </c>
       <c r="F9" t="n">
-        <v>0.647</v>
+        <v>0.644</v>
       </c>
       <c r="G9" t="n">
-        <v>0.677</v>
+        <v>0.678</v>
       </c>
       <c r="H9" t="n">
-        <v>0.694</v>
+        <v>0.6919999999999999</v>
       </c>
     </row>
   </sheetData>
